--- a/preprocessingData/Step03Genetic-results-calculs.xlsx
+++ b/preprocessingData/Step03Genetic-results-calculs.xlsx
@@ -1235,7 +1235,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BU43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="AJ36" sqref="AJ36"/>
     </sheetView>
@@ -1862,7 +1862,7 @@
         <v>0.36587405615933144</v>
       </c>
       <c r="BU3" s="1">
-        <f t="shared" ref="BU2:BU42" si="62">IF(AND(AO3&lt;&gt;"",AO3&lt;&gt;0),BT3/ABS(AO3),"")</f>
+        <f t="shared" ref="BU3:BU42" si="62">IF(AND(AO3&lt;&gt;"",AO3&lt;&gt;0),BT3/ABS(AO3),"")</f>
         <v>3.6450013055798358</v>
       </c>
     </row>
@@ -2110,7 +2110,7 @@
         <v/>
       </c>
       <c r="BT4">
-        <f t="shared" ref="BT3:BT42" si="63">IF(AO4&lt;&gt;"",SQRT(SUM(AP4:BS4)/COUNT(AP4:BS4)),"")</f>
+        <f t="shared" ref="BT4:BT42" si="63">IF(AO4&lt;&gt;"",SQRT(SUM(AP4:BS4)/COUNT(AP4:BS4)),"")</f>
         <v>0.30347176081759536</v>
       </c>
       <c r="BU4" s="1">
